--- a/tudelft/answers_tud.xlsx
+++ b/tudelft/answers_tud.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17480"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="26960" windowHeight="21440"/>
   </bookViews>
   <sheets>
     <sheet name="TUDelft" sheetId="1" r:id="rId1"/>
     <sheet name="CityDoctor" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>001.gml</t>
   </si>
@@ -290,13 +290,19 @@
   </si>
   <si>
     <t>torus where the hole in the top/bottom faces touches the side surfaces</t>
+  </si>
+  <si>
+    <t>037.gml</t>
+  </si>
+  <si>
+    <t>2 unit cubes touching at a vertex: non-manifold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -312,6 +318,18 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="7">
@@ -376,8 +394,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -416,7 +446,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1737,10 +1771,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU58"/>
+  <dimension ref="A1:IU59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -2077,350 +2111,354 @@
     </row>
     <row r="37" spans="1:255" ht="20.25" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:255" ht="32.25" customHeight="1">
+        <v>91</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="7"/>
+      <c r="AT37" s="7"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="7"/>
+      <c r="AW37" s="7"/>
+      <c r="AX37" s="7"/>
+      <c r="AY37" s="7"/>
+      <c r="AZ37" s="7"/>
+      <c r="BA37" s="7"/>
+      <c r="BB37" s="7"/>
+      <c r="BC37" s="7"/>
+      <c r="BD37" s="7"/>
+      <c r="BE37" s="7"/>
+      <c r="BF37" s="7"/>
+      <c r="BG37" s="7"/>
+      <c r="BH37" s="7"/>
+      <c r="BI37" s="7"/>
+      <c r="BJ37" s="7"/>
+      <c r="BK37" s="7"/>
+      <c r="BL37" s="7"/>
+      <c r="BM37" s="7"/>
+      <c r="BN37" s="7"/>
+      <c r="BO37" s="7"/>
+      <c r="BP37" s="7"/>
+      <c r="BQ37" s="7"/>
+      <c r="BR37" s="7"/>
+      <c r="BS37" s="7"/>
+      <c r="BT37" s="7"/>
+      <c r="BU37" s="7"/>
+      <c r="BV37" s="7"/>
+      <c r="BW37" s="7"/>
+      <c r="BX37" s="7"/>
+      <c r="BY37" s="7"/>
+      <c r="BZ37" s="7"/>
+      <c r="CA37" s="7"/>
+      <c r="CB37" s="7"/>
+      <c r="CC37" s="7"/>
+      <c r="CD37" s="7"/>
+      <c r="CE37" s="7"/>
+      <c r="CF37" s="7"/>
+      <c r="CG37" s="7"/>
+      <c r="CH37" s="7"/>
+      <c r="CI37" s="7"/>
+      <c r="CJ37" s="7"/>
+      <c r="CK37" s="7"/>
+      <c r="CL37" s="7"/>
+      <c r="CM37" s="7"/>
+      <c r="CN37" s="7"/>
+      <c r="CO37" s="7"/>
+      <c r="CP37" s="7"/>
+      <c r="CQ37" s="7"/>
+      <c r="CR37" s="7"/>
+      <c r="CS37" s="7"/>
+      <c r="CT37" s="7"/>
+      <c r="CU37" s="7"/>
+      <c r="CV37" s="7"/>
+      <c r="CW37" s="7"/>
+      <c r="CX37" s="7"/>
+      <c r="CY37" s="7"/>
+      <c r="CZ37" s="7"/>
+      <c r="DA37" s="7"/>
+      <c r="DB37" s="7"/>
+      <c r="DC37" s="7"/>
+      <c r="DD37" s="7"/>
+      <c r="DE37" s="7"/>
+      <c r="DF37" s="7"/>
+      <c r="DG37" s="7"/>
+      <c r="DH37" s="7"/>
+      <c r="DI37" s="7"/>
+      <c r="DJ37" s="7"/>
+      <c r="DK37" s="7"/>
+      <c r="DL37" s="7"/>
+      <c r="DM37" s="7"/>
+      <c r="DN37" s="7"/>
+      <c r="DO37" s="7"/>
+      <c r="DP37" s="7"/>
+      <c r="DQ37" s="7"/>
+      <c r="DR37" s="7"/>
+      <c r="DS37" s="7"/>
+      <c r="DT37" s="7"/>
+      <c r="DU37" s="7"/>
+      <c r="DV37" s="7"/>
+      <c r="DW37" s="7"/>
+      <c r="DX37" s="7"/>
+      <c r="DY37" s="7"/>
+      <c r="DZ37" s="7"/>
+      <c r="EA37" s="7"/>
+      <c r="EB37" s="7"/>
+      <c r="EC37" s="7"/>
+      <c r="ED37" s="7"/>
+      <c r="EE37" s="7"/>
+      <c r="EF37" s="7"/>
+      <c r="EG37" s="7"/>
+      <c r="EH37" s="7"/>
+      <c r="EI37" s="7"/>
+      <c r="EJ37" s="7"/>
+      <c r="EK37" s="7"/>
+      <c r="EL37" s="7"/>
+      <c r="EM37" s="7"/>
+      <c r="EN37" s="7"/>
+      <c r="EO37" s="7"/>
+      <c r="EP37" s="7"/>
+      <c r="EQ37" s="7"/>
+      <c r="ER37" s="7"/>
+      <c r="ES37" s="7"/>
+      <c r="ET37" s="7"/>
+      <c r="EU37" s="7"/>
+      <c r="EV37" s="7"/>
+      <c r="EW37" s="7"/>
+      <c r="EX37" s="7"/>
+      <c r="EY37" s="7"/>
+      <c r="EZ37" s="7"/>
+      <c r="FA37" s="7"/>
+      <c r="FB37" s="7"/>
+      <c r="FC37" s="7"/>
+      <c r="FD37" s="7"/>
+      <c r="FE37" s="7"/>
+      <c r="FF37" s="7"/>
+      <c r="FG37" s="7"/>
+      <c r="FH37" s="7"/>
+      <c r="FI37" s="7"/>
+      <c r="FJ37" s="7"/>
+      <c r="FK37" s="7"/>
+      <c r="FL37" s="7"/>
+      <c r="FM37" s="7"/>
+      <c r="FN37" s="7"/>
+      <c r="FO37" s="7"/>
+      <c r="FP37" s="7"/>
+      <c r="FQ37" s="7"/>
+      <c r="FR37" s="7"/>
+      <c r="FS37" s="7"/>
+      <c r="FT37" s="7"/>
+      <c r="FU37" s="7"/>
+      <c r="FV37" s="7"/>
+      <c r="FW37" s="7"/>
+      <c r="FX37" s="7"/>
+      <c r="FY37" s="7"/>
+      <c r="FZ37" s="7"/>
+      <c r="GA37" s="7"/>
+      <c r="GB37" s="7"/>
+      <c r="GC37" s="7"/>
+      <c r="GD37" s="7"/>
+      <c r="GE37" s="7"/>
+      <c r="GF37" s="7"/>
+      <c r="GG37" s="7"/>
+      <c r="GH37" s="7"/>
+      <c r="GI37" s="7"/>
+      <c r="GJ37" s="7"/>
+      <c r="GK37" s="7"/>
+      <c r="GL37" s="7"/>
+      <c r="GM37" s="7"/>
+      <c r="GN37" s="7"/>
+      <c r="GO37" s="7"/>
+      <c r="GP37" s="7"/>
+      <c r="GQ37" s="7"/>
+      <c r="GR37" s="7"/>
+      <c r="GS37" s="7"/>
+      <c r="GT37" s="7"/>
+      <c r="GU37" s="7"/>
+      <c r="GV37" s="7"/>
+      <c r="GW37" s="7"/>
+      <c r="GX37" s="7"/>
+      <c r="GY37" s="7"/>
+      <c r="GZ37" s="7"/>
+      <c r="HA37" s="7"/>
+      <c r="HB37" s="7"/>
+      <c r="HC37" s="7"/>
+      <c r="HD37" s="7"/>
+      <c r="HE37" s="7"/>
+      <c r="HF37" s="7"/>
+      <c r="HG37" s="7"/>
+      <c r="HH37" s="7"/>
+      <c r="HI37" s="7"/>
+      <c r="HJ37" s="7"/>
+      <c r="HK37" s="7"/>
+      <c r="HL37" s="7"/>
+      <c r="HM37" s="7"/>
+      <c r="HN37" s="7"/>
+      <c r="HO37" s="7"/>
+      <c r="HP37" s="7"/>
+      <c r="HQ37" s="7"/>
+      <c r="HR37" s="7"/>
+      <c r="HS37" s="7"/>
+      <c r="HT37" s="7"/>
+      <c r="HU37" s="7"/>
+      <c r="HV37" s="7"/>
+      <c r="HW37" s="7"/>
+      <c r="HX37" s="7"/>
+      <c r="HY37" s="7"/>
+      <c r="HZ37" s="7"/>
+      <c r="IA37" s="7"/>
+      <c r="IB37" s="7"/>
+      <c r="IC37" s="7"/>
+      <c r="ID37" s="7"/>
+      <c r="IE37" s="7"/>
+      <c r="IF37" s="7"/>
+      <c r="IG37" s="7"/>
+      <c r="IH37" s="7"/>
+      <c r="II37" s="7"/>
+      <c r="IJ37" s="7"/>
+      <c r="IK37" s="7"/>
+      <c r="IL37" s="7"/>
+      <c r="IM37" s="7"/>
+      <c r="IN37" s="7"/>
+      <c r="IO37" s="7"/>
+      <c r="IP37" s="7"/>
+      <c r="IQ37" s="7"/>
+      <c r="IR37" s="7"/>
+      <c r="IS37" s="7"/>
+      <c r="IT37" s="7"/>
+      <c r="IU37" s="7"/>
+    </row>
+    <row r="38" spans="1:255" ht="20.25" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:255" ht="20.25" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:255" ht="32.25" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:255" ht="20.25" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:255" ht="32.25" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:255" ht="32.25" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:255" ht="20.25" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:255" ht="32.25" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:255" ht="20.25" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:255" ht="20.25" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:255" ht="32.25" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:255" ht="32.25" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:255" ht="20.25" customHeight="1">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:255" ht="20.25" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:255" ht="32.25" customHeight="1">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:255" ht="32.25" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="4" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:255" ht="20.25" customHeight="1">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-      <c r="AE47"/>
-      <c r="AF47"/>
-      <c r="AG47"/>
-      <c r="AH47"/>
-      <c r="AI47"/>
-      <c r="AJ47"/>
-      <c r="AK47"/>
-      <c r="AL47"/>
-      <c r="AM47"/>
-      <c r="AN47"/>
-      <c r="AO47"/>
-      <c r="AP47"/>
-      <c r="AQ47"/>
-      <c r="AR47"/>
-      <c r="AS47"/>
-      <c r="AT47"/>
-      <c r="AU47"/>
-      <c r="AV47"/>
-      <c r="AW47"/>
-      <c r="AX47"/>
-      <c r="AY47"/>
-      <c r="AZ47"/>
-      <c r="BA47"/>
-      <c r="BB47"/>
-      <c r="BC47"/>
-      <c r="BD47"/>
-      <c r="BE47"/>
-      <c r="BF47"/>
-      <c r="BG47"/>
-      <c r="BH47"/>
-      <c r="BI47"/>
-      <c r="BJ47"/>
-      <c r="BK47"/>
-      <c r="BL47"/>
-      <c r="BM47"/>
-      <c r="BN47"/>
-      <c r="BO47"/>
-      <c r="BP47"/>
-      <c r="BQ47"/>
-      <c r="BR47"/>
-      <c r="BS47"/>
-      <c r="BT47"/>
-      <c r="BU47"/>
-      <c r="BV47"/>
-      <c r="BW47"/>
-      <c r="BX47"/>
-      <c r="BY47"/>
-      <c r="BZ47"/>
-      <c r="CA47"/>
-      <c r="CB47"/>
-      <c r="CC47"/>
-      <c r="CD47"/>
-      <c r="CE47"/>
-      <c r="CF47"/>
-      <c r="CG47"/>
-      <c r="CH47"/>
-      <c r="CI47"/>
-      <c r="CJ47"/>
-      <c r="CK47"/>
-      <c r="CL47"/>
-      <c r="CM47"/>
-      <c r="CN47"/>
-      <c r="CO47"/>
-      <c r="CP47"/>
-      <c r="CQ47"/>
-      <c r="CR47"/>
-      <c r="CS47"/>
-      <c r="CT47"/>
-      <c r="CU47"/>
-      <c r="CV47"/>
-      <c r="CW47"/>
-      <c r="CX47"/>
-      <c r="CY47"/>
-      <c r="CZ47"/>
-      <c r="DA47"/>
-      <c r="DB47"/>
-      <c r="DC47"/>
-      <c r="DD47"/>
-      <c r="DE47"/>
-      <c r="DF47"/>
-      <c r="DG47"/>
-      <c r="DH47"/>
-      <c r="DI47"/>
-      <c r="DJ47"/>
-      <c r="DK47"/>
-      <c r="DL47"/>
-      <c r="DM47"/>
-      <c r="DN47"/>
-      <c r="DO47"/>
-      <c r="DP47"/>
-      <c r="DQ47"/>
-      <c r="DR47"/>
-      <c r="DS47"/>
-      <c r="DT47"/>
-      <c r="DU47"/>
-      <c r="DV47"/>
-      <c r="DW47"/>
-      <c r="DX47"/>
-      <c r="DY47"/>
-      <c r="DZ47"/>
-      <c r="EA47"/>
-      <c r="EB47"/>
-      <c r="EC47"/>
-      <c r="ED47"/>
-      <c r="EE47"/>
-      <c r="EF47"/>
-      <c r="EG47"/>
-      <c r="EH47"/>
-      <c r="EI47"/>
-      <c r="EJ47"/>
-      <c r="EK47"/>
-      <c r="EL47"/>
-      <c r="EM47"/>
-      <c r="EN47"/>
-      <c r="EO47"/>
-      <c r="EP47"/>
-      <c r="EQ47"/>
-      <c r="ER47"/>
-      <c r="ES47"/>
-      <c r="ET47"/>
-      <c r="EU47"/>
-      <c r="EV47"/>
-      <c r="EW47"/>
-      <c r="EX47"/>
-      <c r="EY47"/>
-      <c r="EZ47"/>
-      <c r="FA47"/>
-      <c r="FB47"/>
-      <c r="FC47"/>
-      <c r="FD47"/>
-      <c r="FE47"/>
-      <c r="FF47"/>
-      <c r="FG47"/>
-      <c r="FH47"/>
-      <c r="FI47"/>
-      <c r="FJ47"/>
-      <c r="FK47"/>
-      <c r="FL47"/>
-      <c r="FM47"/>
-      <c r="FN47"/>
-      <c r="FO47"/>
-      <c r="FP47"/>
-      <c r="FQ47"/>
-      <c r="FR47"/>
-      <c r="FS47"/>
-      <c r="FT47"/>
-      <c r="FU47"/>
-      <c r="FV47"/>
-      <c r="FW47"/>
-      <c r="FX47"/>
-      <c r="FY47"/>
-      <c r="FZ47"/>
-      <c r="GA47"/>
-      <c r="GB47"/>
-      <c r="GC47"/>
-      <c r="GD47"/>
-      <c r="GE47"/>
-      <c r="GF47"/>
-      <c r="GG47"/>
-      <c r="GH47"/>
-      <c r="GI47"/>
-      <c r="GJ47"/>
-      <c r="GK47"/>
-      <c r="GL47"/>
-      <c r="GM47"/>
-      <c r="GN47"/>
-      <c r="GO47"/>
-      <c r="GP47"/>
-      <c r="GQ47"/>
-      <c r="GR47"/>
-      <c r="GS47"/>
-      <c r="GT47"/>
-      <c r="GU47"/>
-      <c r="GV47"/>
-      <c r="GW47"/>
-      <c r="GX47"/>
-      <c r="GY47"/>
-      <c r="GZ47"/>
-      <c r="HA47"/>
-      <c r="HB47"/>
-      <c r="HC47"/>
-      <c r="HD47"/>
-      <c r="HE47"/>
-      <c r="HF47"/>
-      <c r="HG47"/>
-      <c r="HH47"/>
-      <c r="HI47"/>
-      <c r="HJ47"/>
-      <c r="HK47"/>
-      <c r="HL47"/>
-      <c r="HM47"/>
-      <c r="HN47"/>
-      <c r="HO47"/>
-      <c r="HP47"/>
-      <c r="HQ47"/>
-      <c r="HR47"/>
-      <c r="HS47"/>
-      <c r="HT47"/>
-      <c r="HU47"/>
-      <c r="HV47"/>
-      <c r="HW47"/>
-      <c r="HX47"/>
-      <c r="HY47"/>
-      <c r="HZ47"/>
-      <c r="IA47"/>
-      <c r="IB47"/>
-      <c r="IC47"/>
-      <c r="ID47"/>
-      <c r="IE47"/>
-      <c r="IF47"/>
-      <c r="IG47"/>
-      <c r="IH47"/>
-      <c r="II47"/>
-      <c r="IJ47"/>
-      <c r="IK47"/>
-      <c r="IL47"/>
-      <c r="IM47"/>
-      <c r="IN47"/>
-      <c r="IO47"/>
-      <c r="IP47"/>
-      <c r="IQ47"/>
-      <c r="IR47"/>
-      <c r="IS47"/>
-      <c r="IT47"/>
-      <c r="IU47"/>
     </row>
     <row r="48" spans="1:255" ht="20.25" customHeight="1">
       <c r="A48"/>
@@ -2679,7 +2717,7 @@
       <c r="IT48"/>
       <c r="IU48"/>
     </row>
-    <row r="49" spans="1:255" ht="32.25" customHeight="1">
+    <row r="49" spans="1:255" ht="20.25" customHeight="1">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -2936,7 +2974,7 @@
       <c r="IT49"/>
       <c r="IU49"/>
     </row>
-    <row r="50" spans="1:255" ht="20.25" customHeight="1">
+    <row r="50" spans="1:255" ht="32.25" customHeight="1">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -3450,7 +3488,7 @@
       <c r="IT51"/>
       <c r="IU51"/>
     </row>
-    <row r="52" spans="1:255" ht="32.25" customHeight="1">
+    <row r="52" spans="1:255" ht="20.25" customHeight="1">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -3707,7 +3745,7 @@
       <c r="IT52"/>
       <c r="IU52"/>
     </row>
-    <row r="53" spans="1:255" ht="20.25" customHeight="1">
+    <row r="53" spans="1:255" ht="32.25" customHeight="1">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -3964,7 +4002,7 @@
       <c r="IT53"/>
       <c r="IU53"/>
     </row>
-    <row r="54" spans="1:255" ht="32.25" customHeight="1">
+    <row r="54" spans="1:255" ht="20.25" customHeight="1">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -4221,7 +4259,7 @@
       <c r="IT54"/>
       <c r="IU54"/>
     </row>
-    <row r="55" spans="1:255" ht="20.25" customHeight="1">
+    <row r="55" spans="1:255" ht="32.25" customHeight="1">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -5249,6 +5287,263 @@
       <c r="IT58"/>
       <c r="IU58"/>
     </row>
+    <row r="59" spans="1:255" ht="20.25" customHeight="1">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+      <c r="AS59"/>
+      <c r="AT59"/>
+      <c r="AU59"/>
+      <c r="AV59"/>
+      <c r="AW59"/>
+      <c r="AX59"/>
+      <c r="AY59"/>
+      <c r="AZ59"/>
+      <c r="BA59"/>
+      <c r="BB59"/>
+      <c r="BC59"/>
+      <c r="BD59"/>
+      <c r="BE59"/>
+      <c r="BF59"/>
+      <c r="BG59"/>
+      <c r="BH59"/>
+      <c r="BI59"/>
+      <c r="BJ59"/>
+      <c r="BK59"/>
+      <c r="BL59"/>
+      <c r="BM59"/>
+      <c r="BN59"/>
+      <c r="BO59"/>
+      <c r="BP59"/>
+      <c r="BQ59"/>
+      <c r="BR59"/>
+      <c r="BS59"/>
+      <c r="BT59"/>
+      <c r="BU59"/>
+      <c r="BV59"/>
+      <c r="BW59"/>
+      <c r="BX59"/>
+      <c r="BY59"/>
+      <c r="BZ59"/>
+      <c r="CA59"/>
+      <c r="CB59"/>
+      <c r="CC59"/>
+      <c r="CD59"/>
+      <c r="CE59"/>
+      <c r="CF59"/>
+      <c r="CG59"/>
+      <c r="CH59"/>
+      <c r="CI59"/>
+      <c r="CJ59"/>
+      <c r="CK59"/>
+      <c r="CL59"/>
+      <c r="CM59"/>
+      <c r="CN59"/>
+      <c r="CO59"/>
+      <c r="CP59"/>
+      <c r="CQ59"/>
+      <c r="CR59"/>
+      <c r="CS59"/>
+      <c r="CT59"/>
+      <c r="CU59"/>
+      <c r="CV59"/>
+      <c r="CW59"/>
+      <c r="CX59"/>
+      <c r="CY59"/>
+      <c r="CZ59"/>
+      <c r="DA59"/>
+      <c r="DB59"/>
+      <c r="DC59"/>
+      <c r="DD59"/>
+      <c r="DE59"/>
+      <c r="DF59"/>
+      <c r="DG59"/>
+      <c r="DH59"/>
+      <c r="DI59"/>
+      <c r="DJ59"/>
+      <c r="DK59"/>
+      <c r="DL59"/>
+      <c r="DM59"/>
+      <c r="DN59"/>
+      <c r="DO59"/>
+      <c r="DP59"/>
+      <c r="DQ59"/>
+      <c r="DR59"/>
+      <c r="DS59"/>
+      <c r="DT59"/>
+      <c r="DU59"/>
+      <c r="DV59"/>
+      <c r="DW59"/>
+      <c r="DX59"/>
+      <c r="DY59"/>
+      <c r="DZ59"/>
+      <c r="EA59"/>
+      <c r="EB59"/>
+      <c r="EC59"/>
+      <c r="ED59"/>
+      <c r="EE59"/>
+      <c r="EF59"/>
+      <c r="EG59"/>
+      <c r="EH59"/>
+      <c r="EI59"/>
+      <c r="EJ59"/>
+      <c r="EK59"/>
+      <c r="EL59"/>
+      <c r="EM59"/>
+      <c r="EN59"/>
+      <c r="EO59"/>
+      <c r="EP59"/>
+      <c r="EQ59"/>
+      <c r="ER59"/>
+      <c r="ES59"/>
+      <c r="ET59"/>
+      <c r="EU59"/>
+      <c r="EV59"/>
+      <c r="EW59"/>
+      <c r="EX59"/>
+      <c r="EY59"/>
+      <c r="EZ59"/>
+      <c r="FA59"/>
+      <c r="FB59"/>
+      <c r="FC59"/>
+      <c r="FD59"/>
+      <c r="FE59"/>
+      <c r="FF59"/>
+      <c r="FG59"/>
+      <c r="FH59"/>
+      <c r="FI59"/>
+      <c r="FJ59"/>
+      <c r="FK59"/>
+      <c r="FL59"/>
+      <c r="FM59"/>
+      <c r="FN59"/>
+      <c r="FO59"/>
+      <c r="FP59"/>
+      <c r="FQ59"/>
+      <c r="FR59"/>
+      <c r="FS59"/>
+      <c r="FT59"/>
+      <c r="FU59"/>
+      <c r="FV59"/>
+      <c r="FW59"/>
+      <c r="FX59"/>
+      <c r="FY59"/>
+      <c r="FZ59"/>
+      <c r="GA59"/>
+      <c r="GB59"/>
+      <c r="GC59"/>
+      <c r="GD59"/>
+      <c r="GE59"/>
+      <c r="GF59"/>
+      <c r="GG59"/>
+      <c r="GH59"/>
+      <c r="GI59"/>
+      <c r="GJ59"/>
+      <c r="GK59"/>
+      <c r="GL59"/>
+      <c r="GM59"/>
+      <c r="GN59"/>
+      <c r="GO59"/>
+      <c r="GP59"/>
+      <c r="GQ59"/>
+      <c r="GR59"/>
+      <c r="GS59"/>
+      <c r="GT59"/>
+      <c r="GU59"/>
+      <c r="GV59"/>
+      <c r="GW59"/>
+      <c r="GX59"/>
+      <c r="GY59"/>
+      <c r="GZ59"/>
+      <c r="HA59"/>
+      <c r="HB59"/>
+      <c r="HC59"/>
+      <c r="HD59"/>
+      <c r="HE59"/>
+      <c r="HF59"/>
+      <c r="HG59"/>
+      <c r="HH59"/>
+      <c r="HI59"/>
+      <c r="HJ59"/>
+      <c r="HK59"/>
+      <c r="HL59"/>
+      <c r="HM59"/>
+      <c r="HN59"/>
+      <c r="HO59"/>
+      <c r="HP59"/>
+      <c r="HQ59"/>
+      <c r="HR59"/>
+      <c r="HS59"/>
+      <c r="HT59"/>
+      <c r="HU59"/>
+      <c r="HV59"/>
+      <c r="HW59"/>
+      <c r="HX59"/>
+      <c r="HY59"/>
+      <c r="HZ59"/>
+      <c r="IA59"/>
+      <c r="IB59"/>
+      <c r="IC59"/>
+      <c r="ID59"/>
+      <c r="IE59"/>
+      <c r="IF59"/>
+      <c r="IG59"/>
+      <c r="IH59"/>
+      <c r="II59"/>
+      <c r="IJ59"/>
+      <c r="IK59"/>
+      <c r="IL59"/>
+      <c r="IM59"/>
+      <c r="IN59"/>
+      <c r="IO59"/>
+      <c r="IP59"/>
+      <c r="IQ59"/>
+      <c r="IR59"/>
+      <c r="IS59"/>
+      <c r="IT59"/>
+      <c r="IU59"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
